--- a/concentrations_h.xlsx
+++ b/concentrations_h.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilk\OneDrive\Desktop\RStudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neilk\OneDrive\Desktop\RStudio\harvard_concentration_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7093BEB4-7B61-4CC1-9C63-BD9B0C20F94F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F67A73-C44E-4786-A8D3-C763C991D1F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{069461D2-9548-4048-A4CC-472AB6EA7061}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Anthropology</t>
   </si>
   <si>
-    <t>Applied Mathematics*</t>
-  </si>
-  <si>
     <t>Astronomy</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>East Asian Studies</t>
   </si>
   <si>
-    <t>Economics*</t>
-  </si>
-  <si>
     <t>Electrical Engineering</t>
   </si>
   <si>
@@ -111,15 +105,9 @@
     <t>History of Art and Architecture</t>
   </si>
   <si>
-    <t>Human Developmental and Regenerative Biology*</t>
-  </si>
-  <si>
     <t>Human Evolutionary Biology</t>
   </si>
   <si>
-    <t>*Integrative Biology</t>
-  </si>
-  <si>
     <t>Linguistics</t>
   </si>
   <si>
@@ -138,9 +126,6 @@
     <t>Near Eastern Languages and Civilizations</t>
   </si>
   <si>
-    <t>Neurobiology*</t>
-  </si>
-  <si>
     <t>Philosophy</t>
   </si>
   <si>
@@ -165,12 +150,6 @@
     <t>Sociology</t>
   </si>
   <si>
-    <t>South Asian Studies*</t>
-  </si>
-  <si>
-    <t>Special Concentrations*</t>
-  </si>
-  <si>
     <t>Statistics</t>
   </si>
   <si>
@@ -181,6 +160,27 @@
   </si>
   <si>
     <t>Studies of Women, Gender, and Sexuality</t>
+  </si>
+  <si>
+    <t>Applied Mathematics</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>Human Developmental and Regenerative Biology</t>
+  </si>
+  <si>
+    <t>Neurobiology</t>
+  </si>
+  <si>
+    <t>Special Concentrations</t>
+  </si>
+  <si>
+    <t>South Asian Studies</t>
+  </si>
+  <si>
+    <t>Integrative Biology</t>
   </si>
 </sst>
 </file>
@@ -577,17 +577,17 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.83984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7890625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83984375" style="1"/>
+    <col min="1" max="1" width="33.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -657,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -692,9 +692,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
         <v>101</v>
@@ -727,9 +727,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -762,9 +762,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>17</v>
@@ -793,9 +793,9 @@
       <c r="J6"/>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>33</v>
@@ -828,9 +828,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>90</v>
@@ -863,9 +863,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>36</v>
@@ -898,9 +898,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <v>34</v>
@@ -933,9 +933,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>48</v>
@@ -968,9 +968,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>86</v>
@@ -1003,9 +1003,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <v>24</v>
@@ -1038,9 +1038,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <v>40</v>
@@ -1073,9 +1073,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2">
         <v>742</v>
@@ -1108,9 +1108,9 @@
         <v>660</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -1135,9 +1135,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2">
         <v>110</v>
@@ -1170,9 +1170,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
         <v>236</v>
@@ -1205,9 +1205,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
         <v>52</v>
@@ -1240,9 +1240,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2">
         <v>13</v>
@@ -1273,9 +1273,9 @@
       </c>
       <c r="K20"/>
     </row>
-    <row r="21" spans="1:11" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
@@ -1308,9 +1308,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2">
         <v>477</v>
@@ -1343,9 +1343,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
         <v>231</v>
@@ -1378,9 +1378,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
         <v>152</v>
@@ -1413,9 +1413,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
         <v>109</v>
@@ -1448,9 +1448,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>62</v>
@@ -1483,9 +1483,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B27"/>
       <c r="C27" s="2">
@@ -1516,9 +1516,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="2">
         <v>132</v>
@@ -1551,9 +1551,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2">
         <v>34</v>
@@ -1586,9 +1586,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2">
         <v>12</v>
@@ -1621,9 +1621,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2">
         <v>87</v>
@@ -1656,9 +1656,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -1683,9 +1683,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33" s="2">
         <v>162</v>
@@ -1718,9 +1718,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34" s="2">
         <v>30</v>
@@ -1753,9 +1753,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B35" s="2">
         <v>13</v>
@@ -1788,9 +1788,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2">
         <v>157</v>
@@ -1823,9 +1823,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2">
         <v>48</v>
@@ -1858,9 +1858,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B38" s="2">
         <v>79</v>
@@ -1893,9 +1893,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2">
         <v>288</v>
@@ -1928,9 +1928,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2">
         <v>34</v>
@@ -1963,9 +1963,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2">
         <v>43</v>
@@ -1998,9 +1998,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2">
         <v>9</v>
@@ -2033,9 +2033,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2">
         <v>296</v>
@@ -2068,9 +2068,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B44" s="2">
         <v>144</v>
@@ -2103,9 +2103,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
@@ -2138,9 +2138,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" s="2">
         <v>14</v>
@@ -2173,9 +2173,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B47" s="2">
         <v>17</v>
@@ -2208,9 +2208,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
@@ -2229,9 +2229,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2">
         <v>80</v>
@@ -2264,9 +2264,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="29.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B50" s="2">
         <v>10</v>
